--- a/Team Table.xlsx
+++ b/Team Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="2300" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="3660" yWindow="7660" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -60,13 +60,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,16 +112,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +473,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -431,35 +484,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -471,6 +524,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
